--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>74.37523510349889</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H2">
-        <v>74.37523510349889</v>
+        <v>254.305553</v>
       </c>
       <c r="I2">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J2">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.5488665482938</v>
+        <v>69.03718366666666</v>
       </c>
       <c r="N2">
-        <v>25.5488665482938</v>
+        <v>207.111551</v>
       </c>
       <c r="O2">
-        <v>0.5212101088293701</v>
+        <v>0.7412254785079075</v>
       </c>
       <c r="P2">
-        <v>0.5212101088293701</v>
+        <v>0.7412254785079075</v>
       </c>
       <c r="Q2">
-        <v>1900.20295615727</v>
+        <v>5852.179723304744</v>
       </c>
       <c r="R2">
-        <v>1900.20295615727</v>
+        <v>52669.6175097427</v>
       </c>
       <c r="S2">
-        <v>0.1217176684167596</v>
+        <v>0.190623986015224</v>
       </c>
       <c r="T2">
-        <v>0.1217176684167596</v>
+        <v>0.1906239860152241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>74.37523510349889</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H3">
-        <v>74.37523510349889</v>
+        <v>254.305553</v>
       </c>
       <c r="I3">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J3">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.5946765447955</v>
+        <v>13.153561</v>
       </c>
       <c r="N3">
-        <v>12.5946765447955</v>
+        <v>39.460683</v>
       </c>
       <c r="O3">
-        <v>0.2569379240435214</v>
+        <v>0.1412246854301422</v>
       </c>
       <c r="P3">
-        <v>0.2569379240435214</v>
+        <v>0.1412246854301422</v>
       </c>
       <c r="Q3">
-        <v>936.7320290716884</v>
+        <v>1115.007868008078</v>
       </c>
       <c r="R3">
-        <v>936.7320290716884</v>
+        <v>10035.0708120727</v>
       </c>
       <c r="S3">
-        <v>0.06000245296980246</v>
+        <v>0.03631932959810238</v>
       </c>
       <c r="T3">
-        <v>0.06000245296980246</v>
+        <v>0.03631932959810238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>74.37523510349889</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H4">
-        <v>74.37523510349889</v>
+        <v>254.305553</v>
       </c>
       <c r="I4">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J4">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.8748203566837</v>
+        <v>10.94850333333333</v>
       </c>
       <c r="N4">
-        <v>10.8748203566837</v>
+        <v>32.84551</v>
       </c>
       <c r="O4">
-        <v>0.2218519671271086</v>
+        <v>0.1175498360619503</v>
       </c>
       <c r="P4">
-        <v>0.2218519671271086</v>
+        <v>0.1175498360619503</v>
       </c>
       <c r="Q4">
-        <v>808.8173207366658</v>
+        <v>928.0883982352254</v>
       </c>
       <c r="R4">
-        <v>808.8173207366658</v>
+        <v>8352.795584117028</v>
       </c>
       <c r="S4">
-        <v>0.05180886501421136</v>
+        <v>0.03023077181679211</v>
       </c>
       <c r="T4">
-        <v>0.05180886501421136</v>
+        <v>0.03023077181679211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.214133982591</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H5">
-        <v>133.214133982591</v>
+        <v>401.04908</v>
       </c>
       <c r="I5">
-        <v>0.4182758096820832</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="J5">
-        <v>0.4182758096820832</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.5488665482938</v>
+        <v>69.03718366666666</v>
       </c>
       <c r="N5">
-        <v>25.5488665482938</v>
+        <v>207.111551</v>
       </c>
       <c r="O5">
-        <v>0.5212101088293701</v>
+        <v>0.7412254785079075</v>
       </c>
       <c r="P5">
-        <v>0.5212101088293701</v>
+        <v>0.7412254785079075</v>
       </c>
       <c r="Q5">
-        <v>3403.470131467748</v>
+        <v>9229.099665102565</v>
       </c>
       <c r="R5">
-        <v>3403.470131467748</v>
+        <v>83061.89698592307</v>
       </c>
       <c r="S5">
-        <v>0.2180095802850915</v>
+        <v>0.3006209393207331</v>
       </c>
       <c r="T5">
-        <v>0.2180095802850915</v>
+        <v>0.3006209393207331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>133.214133982591</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H6">
-        <v>133.214133982591</v>
+        <v>401.04908</v>
       </c>
       <c r="I6">
-        <v>0.4182758096820832</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="J6">
-        <v>0.4182758096820832</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.5946765447955</v>
+        <v>13.153561</v>
       </c>
       <c r="N6">
-        <v>12.5946765447955</v>
+        <v>39.460683</v>
       </c>
       <c r="O6">
-        <v>0.2569379240435214</v>
+        <v>0.1412246854301422</v>
       </c>
       <c r="P6">
-        <v>0.2569379240435214</v>
+        <v>0.1412246854301422</v>
       </c>
       <c r="Q6">
-        <v>1677.788928705784</v>
+        <v>1758.407845924627</v>
       </c>
       <c r="R6">
-        <v>1677.788928705784</v>
+        <v>15825.67061332164</v>
       </c>
       <c r="S6">
-        <v>0.1074709182173375</v>
+        <v>0.05727689997212027</v>
       </c>
       <c r="T6">
-        <v>0.1074709182173375</v>
+        <v>0.05727689997212028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>133.214133982591</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H7">
-        <v>133.214133982591</v>
+        <v>401.04908</v>
       </c>
       <c r="I7">
-        <v>0.4182758096820832</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="J7">
-        <v>0.4182758096820832</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.8748203566837</v>
+        <v>10.94850333333333</v>
       </c>
       <c r="N7">
-        <v>10.8748203566837</v>
+        <v>32.84551</v>
       </c>
       <c r="O7">
-        <v>0.2218519671271086</v>
+        <v>0.1175498360619503</v>
       </c>
       <c r="P7">
-        <v>0.2218519671271086</v>
+        <v>0.1175498360619503</v>
       </c>
       <c r="Q7">
-        <v>1448.67977603187</v>
+        <v>1463.629063070089</v>
       </c>
       <c r="R7">
-        <v>1448.67977603187</v>
+        <v>13172.6615676308</v>
       </c>
       <c r="S7">
-        <v>0.09279531117965424</v>
+        <v>0.04767502353680182</v>
       </c>
       <c r="T7">
-        <v>0.09279531117965424</v>
+        <v>0.04767502353680183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.894585517554</v>
+        <v>111.16377</v>
       </c>
       <c r="H8">
-        <v>110.894585517554</v>
+        <v>333.49131</v>
       </c>
       <c r="I8">
-        <v>0.3481952039171433</v>
+        <v>0.3372530497402263</v>
       </c>
       <c r="J8">
-        <v>0.3481952039171433</v>
+        <v>0.3372530497402264</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.5488665482938</v>
+        <v>69.03718366666666</v>
       </c>
       <c r="N8">
-        <v>25.5488665482938</v>
+        <v>207.111551</v>
       </c>
       <c r="O8">
-        <v>0.5212101088293701</v>
+        <v>0.7412254785079075</v>
       </c>
       <c r="P8">
-        <v>0.5212101088293701</v>
+        <v>0.7412254785079075</v>
       </c>
       <c r="Q8">
-        <v>2833.230966316342</v>
+        <v>7674.43360656909</v>
       </c>
       <c r="R8">
-        <v>2833.230966316342</v>
+        <v>69069.9024591218</v>
       </c>
       <c r="S8">
-        <v>0.181482860127519</v>
+        <v>0.2499805531719504</v>
       </c>
       <c r="T8">
-        <v>0.181482860127519</v>
+        <v>0.2499805531719504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.894585517554</v>
+        <v>111.16377</v>
       </c>
       <c r="H9">
-        <v>110.894585517554</v>
+        <v>333.49131</v>
       </c>
       <c r="I9">
-        <v>0.3481952039171433</v>
+        <v>0.3372530497402263</v>
       </c>
       <c r="J9">
-        <v>0.3481952039171433</v>
+        <v>0.3372530497402264</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.5946765447955</v>
+        <v>13.153561</v>
       </c>
       <c r="N9">
-        <v>12.5946765447955</v>
+        <v>39.460683</v>
       </c>
       <c r="O9">
-        <v>0.2569379240435214</v>
+        <v>0.1412246854301422</v>
       </c>
       <c r="P9">
-        <v>0.2569379240435214</v>
+        <v>0.1412246854301422</v>
       </c>
       <c r="Q9">
-        <v>1396.681435162756</v>
+        <v>1462.19942968497</v>
       </c>
       <c r="R9">
-        <v>1396.681435162756</v>
+        <v>13159.79486716473</v>
       </c>
       <c r="S9">
-        <v>0.08946455285638141</v>
+        <v>0.04762845585991957</v>
       </c>
       <c r="T9">
-        <v>0.08946455285638141</v>
+        <v>0.04762845585991957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>110.894585517554</v>
+        <v>111.16377</v>
       </c>
       <c r="H10">
-        <v>110.894585517554</v>
+        <v>333.49131</v>
       </c>
       <c r="I10">
-        <v>0.3481952039171433</v>
+        <v>0.3372530497402263</v>
       </c>
       <c r="J10">
-        <v>0.3481952039171433</v>
+        <v>0.3372530497402264</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.8748203566837</v>
+        <v>10.94850333333333</v>
       </c>
       <c r="N10">
-        <v>10.8748203566837</v>
+        <v>32.84551</v>
       </c>
       <c r="O10">
-        <v>0.2218519671271086</v>
+        <v>0.1175498360619503</v>
       </c>
       <c r="P10">
-        <v>0.2218519671271086</v>
+        <v>0.1175498360619503</v>
       </c>
       <c r="Q10">
-        <v>1205.958696032298</v>
+        <v>1217.0769063909</v>
       </c>
       <c r="R10">
-        <v>1205.958696032298</v>
+        <v>10953.6921575181</v>
       </c>
       <c r="S10">
-        <v>0.07724779093324294</v>
+        <v>0.03964404070835637</v>
       </c>
       <c r="T10">
-        <v>0.07724779093324294</v>
+        <v>0.03964404070835638</v>
       </c>
     </row>
   </sheetData>
